--- a/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/document/fr/ExportDocuments.xlsx
+++ b/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/document/fr/ExportDocuments.xlsx
@@ -95,7 +95,7 @@
     <t xml:space="preserve">Entité du document</t>
   </si>
   <si>
-    <t xml:space="preserve">Autheur</t>
+    <t xml:space="preserve">Auteur</t>
   </si>
   <si>
     <t xml:space="preserve">Valide depuis</t>
